--- a/data/evaluate/site-search-results.xlsx
+++ b/data/evaluate/site-search-results.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -504,10 +504,10 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Trust Bank becomes one of the fastest growing
-digital banks. In December Trust Bank the Group's
-digital bank in Singapore passed 450000 customers
-within ...</t>
+          <t>Annual report 2022 | Standard Chartered | Annual
+Report 2022 Connecting the world's most dynamic
+markets Read our annual report Full year results
+2022 Read ...</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr"/>
@@ -518,7 +518,7 @@
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
@@ -536,8 +536,10 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Deposits - Help me choose an account - Standard
-Chartered Bank (Nepal)</t>
+          <t>10.30% Standard Chartered Bank Nepal Ltd.
+Debenture · Annual Reports · Basel III Disclosure
+· Important Notice to Shareholders · SCB Nepal
+Quaterly Results.</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -552,7 +554,7 @@
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -589,7 +591,7 @@
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
@@ -597,52 +599,16 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>KYC – Standard Chartered India</t>
+          <t>pk-annual-report-2016.pdf</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>https://www.sc.com/in/important-information/kyc/</t>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>KYC means Know Your Customer - KYC enables banks
-to know and understand their customers and their
-financial dealings to be able to serve them better
-and ...</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>KYC</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>pk-annual-report-2016.pdf</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>Mar 2 2017 ... Standard Chartered Bank [Pakistan)
 Ltd. Points of interest. •. Standard Chartered is
@@ -650,23 +616,59 @@
 and oldest ...</t>
         </is>
       </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Page numbers 1-31.FH10</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>D:20170306111255+05'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Annual Registration Document of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>KYC – Standard Chartered India</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sc.com/in/important-information/kyc/</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Q. Are KYC requirements new? No KYC requirements
+have always been in place and Banks have been
+taking KYC documents in accordance with the
+guidelines issued by ...</t>
+        </is>
+      </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Page numbers 1-31.FH10</t>
+          <t>KYC</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>D:20170306111255+05'00'</t>
-        </is>
-      </c>
+      <c r="H6" s="3" t="inlineStr"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
@@ -685,10 +687,10 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Mar 3 2016 ... Standard Chartered Bank (Pakistan)
-Ltd. Points of interest. Standard Chartered ...
-Standard Chartered Annual Report 2015. NOTICE OF
-ANNUAL GENERAL ...</t>
+          <t>Mar 3 2016 ... ... Standard Chartered Annual
+Report 2015. NOTICE OF ANNUAL GENERAL MEETING ...
+registration details are uploaded as per the
+Regulations shall ...</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -707,7 +709,7 @@
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
@@ -726,10 +728,10 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Dec 31 2021 ... by shareholder at the Bank's
-Annual General Meeting. ... other three joint
-venture partners of HOUSe are Standard Chartered
-Bank Malaysia Berhad ...</t>
+          <t>Dec 31 2021 ... Effective for annual periods
+commencing on or after 1 January 2022 (Cont'd) ...
+other three joint venture partners of HOUSe are
+Standard Chartered ...</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -752,7 +754,7 @@
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
@@ -797,7 +799,7 @@
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
+for 2022 filetype: pdf</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
@@ -815,6 +817,5184 @@
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Aug 1 2022 ... Read more on our purpose and values
+on pages 4 and 15 of our Annual Report and
+Accounts 2021. Opening up a world of opportunity.
+Key themes.</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2022</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>D:20220731111324Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Annual Registration Document of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to ...</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... The Board of Directors of HSBC
+Holdings plc as at the date of this document
+comprises: Mark Tucker* John. Flint Kathleen
+Casey† Laura Cha† ...</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Annual Registration Document of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>USD 50000000000 Programme for Issuance of
+Perpetual ...</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Mar 30 2021 ... This document (and all documents
+incorporated by reference herein) (the "Offering
+Memorandum") has been prepared for the purpose of
+providing.</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>USD 50000000000 Programme for Issuance of
+Perpetual Subordinated Contingent Convertible
+Securities</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>Issuance programmes</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>D:20210330154938+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Annual Registration Document of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Indian Overseas Bank</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Nov 12 2021 ... ... DOCUMENT AND EARNEST MONEY
+DEPOSIT: The bid should also be accompanied by Bid
+Security Declaration and cost of bid document
+(non-refundable) ...</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr"/>
+      <c r="G13" s="3" t="inlineStr"/>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>D:20211105115802+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Personal Banking Internet Banking and Corporate
+Banking ... - IOB</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>https://www.iob.in/update-aadhaar</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Mar 9 2021 ... Indian Overseas Bank Offers a wide
+range of Personal and Business Banking products
+and services to meet your financial goal and
+secure your ...</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr"/>
+      <c r="H14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... A Chinese translation of the
+Annual Report and Accounts 2021 is available upon
+request from: Communications (Asia) Level 32. HSBC
+Main ...</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>IOB BSMD CO - Policy on Appointment of Statutory
+Central ...</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/upload/CEDocuments/iobPolicyAppointmentStatutoryCentralAuditorsStatutoryBranchAuditors.pdf</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>In terms of RBI guidelines on 'Norms on
+eligibility empanelment and selection of Statutory
+Branch Auditors in Public Sector Banks (PSBs)'
+PSBs shall allot the ...</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr"/>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>Wed Feb 9 10:23:39 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Feb 23 2021 ... ◇ For Overseas Indian customers
+grow NRI hubs enabled by digital and remittance
+... banks' disclosures in their annual reports.
+36. Source: ...</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Presentation to Investors and Analysts</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2020</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>D:20210611145817+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Indian Overseas Bank</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Nov 12 2021 ... ... Annual reports of 2018-19
+2019-20 and 2020-21 should be attached. In case
+annual report of 2020-21 is not available
+provisional reports.</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr"/>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>D:20211105115802+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>NAME ADDRESS K.VELUSAMY K.VELUSAMY S/O ISHAR DAS
+...</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/upload/CEDocuments/UNCL-WEB01-2019-04.pdf</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>... INDIAN OVERSEAS BANK. UNCLAIMED BALANCES AS ON
+30.09.2023. Page 2. " EASWARAN TOOLS. " EASWARAN
+TOOLS. " EME SERVICES &amp;. " EME SERVICES &amp;. "
+ERUMIYAMPA.</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr"/>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>D:20231005144210+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>NAME ADDRESS ANNAMMA JACOBTHARAKAN T JACOB 60 ...</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/upload/CEDocuments/UNCL-WEB02-2019-04.pdf</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>INDIAN OVERSEAS BANKSTATION ROADRAIPUR. C.G.PIN
+CODE 492009. ANUP DANGB.SC ... GENERAL STORES.
+LAXMINAGAR GODAVARIKHANI. ARAVIND MENIAL ST.
+ARAVIND MOBILES.</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr"/>
+      <c r="G20" s="3" t="inlineStr"/>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>D:20231005145909+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2018</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2018/interim-results/the-hongkong-and-shanghai-banking-corporation-limited/180806-interim-report-2018.pdf</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Aug 6 2018 ... This document comprises the Interim
+Report 2018 for The. Hongkong and Shanghai Banking
+Corporation Limited ('the Bank') and its
+subsidiaries ( ...</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2018</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>Interim results 2018</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>D:20180901110000Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>I have been locked out of my account. What should
+I do? | Standard ...</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/en/faq/i-have-been-locked-out-of-my-account-what-should-i-do/</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>For security reasons if you have three
+unsuccessful login attempts in any one session our
+system will lock you out. If this happens please
+wait a few ...</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr"/>
+      <c r="H22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>NAME ADDRESS DINESHKUMAR S DINESHKUMAR S ...</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/upload/CEDocuments/UNCL-WEB04-2019-04.pdf</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>... INDIAN OVERSEAS BANK. UNCLAIMED BALANCES AS ON
+30.09.2023. Page 2 ... GENERAL HOSPITAL. DR RAMESH
+KODAVATIGANTI. DR RAMESH PRASAD. DR RAMESH PRASAD.
+DR RAMESHDR ...</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr"/>
+      <c r="G23" s="3" t="inlineStr"/>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>D:20231005152454+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>General Corporate Report of Indian Overseas Bank
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>NAME ADDRESS H NAZEER AHAMED GNANIYAR H NAZEER ...</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/upload/CEDocuments/UNCL-WEB05-2019-04.pdf</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>... INDIAN OVERSEAS BANK. UNCLAIMED BALANCES AS ON
+30.09.2023. Page 2. H P BHARAT ... REPORT.
+H.DAVAMANI REPORT. H.DAWOOD GANI. H.DAWOOD
+MOHIDEEN. H.DAWOOD MOHIDEEN.</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr"/>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>D:20231005153340+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report of Commerzbank for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>General Presentation_This is Commerzbank</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.commerzbank.com/media/en/presse/presentations/Commerzbank_Basispraesentation.pdf</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Aug 4 2023 ... ○ 2021. Manfred Knof new Chairman
+of the Board of Managing Directors ... taken or
+derived from industry reports published by third
+parties ...</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>General Presentation_This is Commerzbank</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr"/>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>D:20230803144902+02'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report of Commerzbank for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... ... Audit Committee Chief
+Financial Officer of. Commerzbank Group Partner
+and Director of the Boston. Consulting Group as
+well as non-executive ...</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report of Commerzbank for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Commerzbank Forecasts</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.commerzbank.com/media/en/research/economic_research/aktuell_1/GrowthandInflation.pdf</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>... report. Commerzbank may perform or seek to
+perform investment banking ... transactions in
+financial instruments within the meaning of the
+Financial Services Act.</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr"/>
+      <c r="G27" s="3" t="inlineStr"/>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>D:20231027062744+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report of Commerzbank for 2022 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>KYC &amp; MLP Policies - Commerzbank AG</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.commerzbank.com/en/hauptnavigation/institutions/kyc/kyc.html</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Current Annual Report · Share information. Quick
+links. Online-Banking. Retail ... Download.
+Commerzbank's Financial Regulator PDF 12 kB. KYC
+documents: KYC ...</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr"/>
+      <c r="G28" s="3" t="inlineStr"/>
+      <c r="H28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report of Commerzbank for 2022 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>General Presentation_This is Commerzbank</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.commerzbank.com/media/en/presse/presentations/Commerzbank_Basispraesentation.pdf</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>Aug 4 2023 ... 1 Europe Middle East Africa. €m. Q2
+2022. FY 2022. Q2 2023. Revenues ... taken or
+derived from industry reports published by third
+parties ...</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>General Presentation_This is Commerzbank</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr"/>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>D:20230803144902+02'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report of Commerzbank for 2022 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>Commerzbank Forecasts</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.commerzbank.com/media/en/research/economic_research/aktuell_1/GrowthandInflation.pdf</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>2022. 2023. 2024. USA. 1.9. 2.2. 0.8. 8.0. 4.2.
+3.2. China. 3.0. 4.8. 4.0. 2.0. 0.5. 1.3. Euro
+area ... report. Commerzbank may perform or seek
+to perform ...</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr"/>
+      <c r="G30" s="3" t="inlineStr"/>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>D:20231027062744+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report of Commerzbank for 2022 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... ... 2022 and as a sustainable
+finance strategy tailored for European ...
+Commerzbank Group Partner and Director of the
+Boston. Consulting Group ...</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report of Commerzbank for 2022 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Insights: Five drivers of sustainable trade</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.commerzbank.com/media/nachhaltigkeit/iv__markt___kunden/Sustainable_Trade_Part_1_EN.pdf</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>annual reports are becoming more common instead of
+separate sustainability ... This report was
+compiled and issued by Commerzbank AG Frankfurt am
+Main ...</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr"/>
+      <c r="G32" s="3" t="inlineStr"/>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>D:20150226132216+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>The tool is integrated with DHL's document
+tracking system as well as Lloyd's List
+Intelligence's vessel-tracking solution providing
+our clients and also ...</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr"/>
+      <c r="G33" s="3" t="inlineStr"/>
+      <c r="H33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 31st October 2017 Page 1
+of 1696 “For ...</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>Oct 31 2017 ... ... STANDARD CHARTERED BANK CASH
+MGT. DEPT 90 M G ROAD MUMBAI 400001 ... UNIVERSAL
+LTD. -. FINAL DIVIDEND 2000. PARRY HOUSE 43 MOORE
+STREET CHENNAI ...</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr"/>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>D:20171107174820+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... References to 'HSBC' 'HSBC Group'
+or. 'Group' within this document mean HSBC
+Holdings plc together with its subsidiaries. HSBC
+Bank plc is ...</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 30th September 2015 Page
+1 of 1630 ...</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/in/assets/pws/pdf/Unclaimed_Accounts1.pdf</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>Sep 30 2015 ... ... STANDARD CHARTERED BANK CASH.
+MGT DEPT 90 M G ROAD MUMBAI 400001 MAHARASHTRA ...
+UNIVERSAL ENGINEERS &amp; TRADERS 2GANESH CHANDRA
+AVENUE3RD. FL ...</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr"/>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>D:20151003110618+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered | Annual
+Report 2022 Connecting the world's most dynamic
+markets Read our annual report Full year results
+2022 Read ...</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr"/>
+      <c r="H37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Introduction pages 1 to 29 - 04 March-16.FH10</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>Mar 3 2016 ... Standard Chartered Bank (Pakistan)
+Ltd. Points of interest. Standard Chartered is
+proud to be operating in Pakistan as the largest
+and oldest ...</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>Introduction pages 1 to 29 - 04 March-16.FH10</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr"/>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>D:20160307195606+05'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 31st October 2017 Page 1
+of 1696 “For ...</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>Oct 31 2017 ... ... STANDARD CHARTERED BANK CASH
+MGT. DEPT 90 M G ROAD MUMBAI 400001 ... UNIVERSAL
+LTD. -. FINAL DIVIDEND 2000. PARRY HOUSE 43 MOORE
+STREET CHENNAI ...</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr"/>
+      <c r="G39" s="3" t="inlineStr"/>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>D:20171107174820+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... References to 'HSBC' 'HSBC Group'
+or. 'Group' within this document mean HSBC
+Holdings plc together with its subsidiaries. HSBC
+Bank plc is ...</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Universal Registration Document of Standard
+Chartered for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 30th September 2015 Page
+1 of 1630 ...</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/in/assets/pws/pdf/Unclaimed_Accounts1.pdf</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Sep 30 2015 ... ... STANDARD CHARTERED BANK CASH.
+MGT DEPT 90 M G ROAD MUMBAI 400001 MAHARASHTRA ...
+UNIVERSAL ENGINEERS &amp; TRADERS 2GANESH CHANDRA
+AVENUE3RD. FL ...</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr"/>
+      <c r="G41" s="3" t="inlineStr"/>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>D:20151003110618+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ... form part of our ESG
+disclosures suite together with other ... pdf.
+Insurance. In 2021 our Insurance business which
+has life insurance ...</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221132403Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>Results and announcements | HSBC Holdings plc</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/investors/results-and-announcements</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Form 20-F. PDF 9MB 471 pages.
+Add to download basket Add HSBC ... Annual Report.
+Download our Annual Report and Accounts 2022 and
+related ...</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>ESG reporting centre | HSBC Holdings plc</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/who-we-are/esg-and-responsible-business/esg-reporting-centre</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Find detailed supplementary information on HSBC's
+processes and policies relating to environmental
+social and governance (ESG) performance.</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Net Zero Aligned Finance - Approach Update</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/who-we-are/pdf/211214-financed-emissions-approach-and-methodology-update.pdf</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>Dec 14 2021 ... HSBC intends to publish its
+baseline financed emissions and initial targets
+for the Oil &amp; Gas and Power sectors in its 2021
+Annual Report and ...</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Net Zero Aligned Finance</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>Approach Update</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="inlineStr">
+        <is>
+          <t>D:20211213095242Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... Page. Strategic Report.
+Highlights. 2. Key themes of 2021. 3. Key
+financial metrics. 3. About HSBC Group. 4. Purpose
+and strategy.</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... within the Annual Report and
+Accounts 2021 of HSBC Holdings plc. The ...
+information and we do not and will not express any
+form of assurance ...</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... In aggregate the audit work
+performed across the locations above provided us
+with the audit evidence required to form an
+opinion on the group ...</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221174857Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Strategic Report 2021</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-strategic-report-2021.pdf?download=1</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... We have published our thermal coal
+phase-out policy and have set targets to reduce
+our on-balance sheet financed emissions of two
+priority ...</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>Strategic Report 2021</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221101242Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>Environmental social and governance review</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/annual/pdfs/hsbc-holdings-plc/230221-esg-review-2022.pdf</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2023 ... Consistent with the scope of
+financial information presented in our Annual
+Report and Accounts the ESG review covers the
+operations of HSBC ...</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>Environmental social and governance review</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>Environmental social and governance</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>D:20230220181710Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Green Bonds Report</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/green-and-sustainability-bonds/pdfs/211214-hsbc-green-bonds-report-2021.pdf?download=1</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Green Progress Report. Total: 38. A. 43. 50.
+100. 1303. 405. Type. Reference ... 2021 Annual.
+Report &amp; Accounts. Page 10. HSBC Green Bonds
+Report. 10.</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Green Bonds Report</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>Green and Sustainability bonds</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>D:20211207124418Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Strategic Report 2020</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-strategic-report-2020.pdf?download=1</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>Feb 23 2021 ... Today we also announced that Laura
+Cha will step down from the Board immediately
+after our 2021 Annual General Meeting. ('AGM') in
+May. I ...</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Strategic Report 2020</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2020</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>D:20210223104527Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>Dec 31 2021 ... the Corporate Governance Report of
+HSBC Bank Malaysia Berhad (the ... information and
+we do not express any form of assurance conclusion
+thereon.</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>Financial and regulatory reports</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>D:20220218173806+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>Aug 1 2022 ... Read more on our purpose and values
+on pages 4 and 15 of our Annual Report and
+Accounts 2021. Opening up a world of opportunity.
+Key themes.</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2022</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>D:20220731111324Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Global Trade and Receivables Finance</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2020/200928-hsbc-global-trade-and-receivables-finance.pdf</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>Sep 28 2020 ... ... Annual Report and Accounts for
+the fiscal year ended 31. December 2019 filed with
+the Securities and Exchange Commission (the “SEC”)
+on Form ...</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Global Trade and Receivables Finance</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>Investor event</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>D:20200928120333+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>ESG Datapack 2021 (Excel)</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-esg-datapack-2021-excel.xlsx?download=1</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ... Form 6-Ks and the 2021 Form
+20-F. 000000_x000D_#000000PUBLIC. WEF ... HSBC
+Holdings plc Annual Report and Accounts 2021 ---&gt;
+Report of the ...</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr"/>
+      <c r="G56" s="3" t="inlineStr"/>
+      <c r="H56" s="3" t="inlineStr"/>
+    </row>
+    <row r="57" ht="15" customHeight="1">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>Feb 23 2021 ... Client revenue is based on HSBC
+internal client management information and differs
+from reported revenue. ... 2021 (the “2020 Form
+20-F”).</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>Presentation to Investors and Analysts</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2020</t>
+        </is>
+      </c>
+      <c r="H57" s="3" t="inlineStr">
+        <is>
+          <t>D:20210611145817+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Global Trade &amp; Receivables Finance Webcast</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2017/20170405-hsbc-global-trade-receivables-finance-web-cast-presentation.pdf</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Balance sheet. Beneficiary. Seller. A
+multi-geography Bank Guarantee solution ... Annual
+Report and Accounts and the. Reconciliations of
+Non-GAAP Financial ...</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Global Trade &amp; Receivables Finance Webcast</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>Presentation</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>D:20170405100734+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>According to the 2011 HSBC Annual Report and
+Accounts profit ...</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>We have audited the accompanying separate
+financial statements of HSBC Bank - Egypt (S.A.E)
+which comprise the separate balance sheet as at 31
+December 2011 and ...</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>According to the 2011 HSBC Annual Report and
+Accounts profit before tax rose 20 per cent while
+total deposits rose 6 per cent at year-end.</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>2011 HSBC Annual Report and Accounts</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>D:20120902125026Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>USD 50000000000 Programme for Issuance of
+Perpetual ...</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>Mar 30 2021 ... The Securities may include
+Securities in bearer form that are subject to U.S.
+tax law requirements. Programme Arranger and
+Dealer. HSBC. Page 2 ...</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>USD 50000000000 Programme for Issuance of
+Perpetual Subordinated Contingent Convertible
+Securities</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>Issuance programmes</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>D:20210330154938+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting - English -
+HSBC Group</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... Information about the 2019 Annual
+General Meeting ... of Hong Kong Limited for the
+purpose of giving information with regard to HSBC
+Holdings plc.</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>Global Trade and Receivables Finance presentation</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2019/190318-global-trade-and-receivables-finance-presentation.pdf</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>Mar 18 2019 ... ... Annual Report and Accounts for
+the fiscal year ended 31 December ... Source:
+Internal HSBC MI; comparison of CMB Corporate
+clients with GTRF ...</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>Global Trade and Receivables Finance presentation</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>Events and Presentations Documents</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>D:20190316201312Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Pillar 3 Disclosures at 30 June
+2020</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>Jun 30 2020 ... the Annual Report and Accounts
+2019. Table 26: Performing and non-performing
+exposures and related provisions. Gross carrying
+amount/nominal ...</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Pillar 3 Disclosures at 30 June
+2020</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2019</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t>D:20200807230100+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>2018 Interim results - Highlights - English - HSBC
+Group</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2018/August/sea-180806-e-2018-interim-results-highlights.pdf</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>Aug 6 2018 ... There have been no material changes
+to the information disclosed in the Annual Report
+and Accounts 2017 in respect of the remuneration
+of ...</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>2018 Interim results - Highlights - Announcement
+made to the HK stock exchange - English</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>D:20180801093121+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Annual Information Form of HSBC for 2021 filetype:
+pdf</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>GEM Offering Memorandum dated 1 June 2023</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Jun 1 2023 ... Each of HSBC. Bank Middle East
+Limited ("HBME") and HSBC ... information and an
+Investor must obtain such information from the
+Offeror.</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>GEM Offering Memorandum dated 1 June 2023</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>Issuance programmes</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>D:20230601164024+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-K of Brookline Bancorp for
+2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 30th September 2015 Page
+1 of 1630 ...</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>Sep 30 2015 ... ... 10 JALAN BESAR NO 10-12 SIM
+LIM TOWER 0820 MAHARASHTRA. 2054. MANSUKHLAL
+HIRALAL &amp; CO. SOORYA MAHAL5-BURJORJI BHARUCHA MARG
+FORT MUMBAI ...</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr"/>
+      <c r="G66" s="3" t="inlineStr"/>
+      <c r="H66" s="3" t="inlineStr">
+        <is>
+          <t>D:20151003110618+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... A Chinese translation of the
+Annual Report and Accounts 2021 is available upon
+request from: Communications (Asia) Level 32. HSBC
+Main ...</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ... 2022 but to move slowly and to
+keep monetary policy accommodative ... The bank's
+regulatory capital is divided into two tiers: •
+Tier 1 ...</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221174857Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Aug 1 2022 ... Read more on page 10. Delivery
+against our financial targets. Return on average
+tangible equity. (annualised). 9.9%.</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2022</t>
+        </is>
+      </c>
+      <c r="H69" s="3" t="inlineStr">
+        <is>
+          <t>D:20220731111324Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>GEM Offering Memorandum dated 1 June 2023</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>Jun 1 2023 ... ... 2022 HBME Annual Report and
+Accounts. The outcomes of these legal ... Bank plc
+or HSBC Continental Europe is the. Calculation
+Agent in ...</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>GEM Offering Memorandum dated 1 June 2023</t>
+        </is>
+      </c>
+      <c r="G70" s="3" t="inlineStr">
+        <is>
+          <t>Issuance programmes</t>
+        </is>
+      </c>
+      <c r="H70" s="3" t="inlineStr">
+        <is>
+          <t>D:20230601164024+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to ...</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... Her non-executive role with HSBC
+Holdings plc including its subsidiaries. The
+Hongkong and Shanghai Banking Corporation Limited
+and Hang Seng ...</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="H71" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 31st October 2017 Page 1
+of 1696 “For ...</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>Oct 31 2017 ... CLIENT RELATIONSHIP STANDARD
+CHARTERED BANK 19 N S RD. CALDUTTA 700001 WB
+INDIA. 100 M/S G K W LIMITED. LAL BAHADUR SHASTRI
+MARG BHANDUP ...</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="inlineStr"/>
+      <c r="G72" s="3" t="inlineStr"/>
+      <c r="H72" s="3" t="inlineStr">
+        <is>
+          <t>D:20171107174820+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-K of Columbia Bank for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 30th September 2015 Page
+1 of 1630 ...</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>Sep 30 2015 ... ... 10/FTOWER 1JEEVAN BHARATI 124
+CONNAUGHT CIRCUS NEW DELHI. -1. 10 HIND LEVER
+CHEMICALS LTD. A-5PHASE 11-B FOCAL POINT RAJPURA
+140401 ...</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr"/>
+      <c r="G73" s="3" t="inlineStr"/>
+      <c r="H73" s="3" t="inlineStr">
+        <is>
+          <t>D:20151003110618+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>Results and announcements | HSBC Holdings plc</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/investors/results-and-announcements</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>PDF 2MB 56 pages. Add to ... Visit our full
+archive of financial results and other regulatory
+documents relating to HSBC Holdings plc and its
+subsidiaries.</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="inlineStr"/>
+      <c r="G74" s="3" t="inlineStr"/>
+      <c r="H74" s="3" t="inlineStr"/>
+    </row>
+    <row r="75" ht="15" customHeight="1">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>ESG reporting centre | HSBC Holdings plc</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/who-we-are/esg-and-responsible-business/esg-reporting-centre</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>Find detailed supplementary information on HSBC's
+processes and policies relating to environmental
+social and governance (ESG) performance.</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="inlineStr"/>
+      <c r="G75" s="3" t="inlineStr"/>
+      <c r="H75" s="3" t="inlineStr"/>
+    </row>
+    <row r="76" ht="15" customHeight="1">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ... regulatory environments have
+become increasingly fragmented through ... pdf.
+Insurance. In 2021 our Insurance business which
+has life.</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G76" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221132403Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="15" customHeight="1">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... within the Annual Report and
+Accounts 2021 of HSBC Holdings plc. The ... March
+2021 a new Regulatory Conduct Strategic Delivery
+and.</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="H77" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="15" customHeight="1">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... HSBC Bank plc is exempt from
+publishing information required by. The Capital
+Requirements Country-by-Country Reporting.
+Regulations 2013 as ...</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G78" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="15" customHeight="1">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>Environmental social and governance review</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/annual/pdfs/hsbc-holdings-plc/230221-esg-review-2022.pdf</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2023 ... HSBC Holdings plc is responsible
+for preparation of the ESG information and all the
+supporting records including selecting appropriate
+...</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>Environmental social and governance review</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="inlineStr">
+        <is>
+          <t>Environmental social and governance</t>
+        </is>
+      </c>
+      <c r="H79" s="3" t="inlineStr">
+        <is>
+          <t>D:20230220181710Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="15" customHeight="1">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Net Zero Aligned Finance - Approach Update</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/who-we-are/pdf/211214-financed-emissions-approach-and-methodology-update.pdf</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>Dec 14 2021 ... HSBC intends to publish its
+baseline financed emissions and initial targets
+for the Oil &amp; Gas and Power sectors in its 2021
+Annual Report and ...</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Net Zero Aligned Finance</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>Approach Update</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
+        <is>
+          <t>D:20211213095242Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="15" customHeight="1">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Strategic Report 2021</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-strategic-report-2021.pdf?download=1</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... term sector-based targets;
+publishing a policy to phase out the ... of this
+Strategic Report 2021 or Annual Report and
+Accounts 2021 should ...</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>Strategic Report 2021</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H81" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221101242Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="15" customHeight="1">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Green Bonds Report</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/green-and-sustainability-bonds/pdfs/211214-hsbc-green-bonds-report-2021.pdf?download=1</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>HSBC's commitment to green finance has continued
+into 2021 through both our own product creation
+and working with clients to structure financing
+for ...</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Green Bonds Report</t>
+        </is>
+      </c>
+      <c r="G82" s="3" t="inlineStr">
+        <is>
+          <t>Green and Sustainability bonds</t>
+        </is>
+      </c>
+      <c r="H82" s="3" t="inlineStr">
+        <is>
+          <t>D:20211207124418Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="15" customHeight="1">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... HSBC met regulatory milestones to
+cease issuance of new Libor contracts for the
+demising benchmarks through 2021 and expects to
+meet ...</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H83" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221174857Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="15" customHeight="1">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>Feb 23 2021 ... equity interest in HSBC Life China
+subject to regulatory approvals ... in accordance
+with SEC rules and regulations (“Alternative
+Performance ...</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="inlineStr">
+        <is>
+          <t>Presentation to Investors and Analysts</t>
+        </is>
+      </c>
+      <c r="G84" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2020</t>
+        </is>
+      </c>
+      <c r="H84" s="3" t="inlineStr">
+        <is>
+          <t>D:20210611145817+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="15" customHeight="1">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Strategic Report 2020</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-strategic-report-2020.pdf?download=1</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>Feb 23 2021 ... These include the regulatory
+transitional arrangements for IFRS 9 'Financial
+Instruments' which are explained further on page
+173 of our Annual ...</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Strategic Report 2020</t>
+        </is>
+      </c>
+      <c r="G85" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2020</t>
+        </is>
+      </c>
+      <c r="H85" s="3" t="inlineStr">
+        <is>
+          <t>D:20210223104527Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="15" customHeight="1">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>Dec 31 2021 ... His interest in the Bank's related
+corporation is as disclosed in the Directors'
+Report on page 18. 2. Page 5. HSBC BANK MALAYSIA
+BERHAD. ( ...</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="G86" s="3" t="inlineStr">
+        <is>
+          <t>Financial and regulatory reports</t>
+        </is>
+      </c>
+      <c r="H86" s="3" t="inlineStr">
+        <is>
+          <t>D:20220218173806+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="15" customHeight="1">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Global Trade and Receivables Finance</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2020/200928-hsbc-global-trade-and-receivables-finance.pdf</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>Sep 28 2020 ... ... regulatory changes or due to
+the impact of Covid-19). Any such ... Source: HSBC
+Holdings plc Annual Report and Accounts 2019. 2.
+Source ...</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Global Trade and Receivables Finance</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="inlineStr">
+        <is>
+          <t>Investor event</t>
+        </is>
+      </c>
+      <c r="H87" s="3" t="inlineStr">
+        <is>
+          <t>D:20200928120333+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="15" customHeight="1">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>Aug 1 2022 ... Read more on our purpose and values
+on pages 4 and 15 of our Annual Report and
+Accounts 2021. Opening up a world of opportunity.
+Key themes.</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2022</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="inlineStr">
+        <is>
+          <t>D:20220731111324Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="15" customHeight="1">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>ESG Datapack 2021 (Excel)</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-esg-datapack-2021-excel.xlsx?download=1</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ...
+2021/06/User_Guide_ver_16_2021-1.pdf. 65 2020
+source: https://cea.nic.in ... HSBC Holdings plc
+Annual Report and Accounts 2021 ---&gt; ESG Review
+...</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="inlineStr"/>
+      <c r="G89" s="3" t="inlineStr"/>
+      <c r="H89" s="3" t="inlineStr"/>
+    </row>
+    <row r="90" ht="15" customHeight="1">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>GEM Offering Memorandum dated 1 June 2023</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>Jun 1 2023 ... On 24 February 1999 HSBC Bank plc
+("HBEU") established a Programme for the Issuance
+of Notes and Warrants (the "Programme"). Each of
+HSBC.</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="inlineStr">
+        <is>
+          <t>GEM Offering Memorandum dated 1 June 2023</t>
+        </is>
+      </c>
+      <c r="G90" s="3" t="inlineStr">
+        <is>
+          <t>Issuance programmes</t>
+        </is>
+      </c>
+      <c r="H90" s="3" t="inlineStr">
+        <is>
+          <t>D:20230601164024+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="15" customHeight="1">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Pillar 3 Disclosures at 30 June
+2020</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>Jun 30 2020 ... Page. Introduction. Highlights.
+Regulatory framework for disclosures. Pillar 3
+disclosures. Key metrics. Regulatory developments.</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Pillar 3 Disclosures at 30 June
+2020</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2019</t>
+        </is>
+      </c>
+      <c r="H91" s="3" t="inlineStr">
+        <is>
+          <t>D:20200807230100+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="15" customHeight="1">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>1Q 2021 Data Pack (Excel file)</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/1q/pdf/hsbc-holdings-plc/210427-1q-2021-data-pack-excel.xlsx</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>Apr 27 2021 ... ... HSBC's significant accounting
+policies as described in the Annual Report and
+Accounts 2020. The financial information does not
+constitute ...</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="inlineStr"/>
+      <c r="G92" s="3" t="inlineStr"/>
+      <c r="H92" s="3" t="inlineStr"/>
+    </row>
+    <row r="93" ht="15" customHeight="1">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>Consensus and analyst coverage | HSBC Holdings plc</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/investors/investing-in-hsbc/consensus-and-analyst-coverage</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>Consensus financial estimates · Equity analyst
+coverage · More in this section · Financial
+calendar · Our investment case · Share · Did you
+find this page useful?</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="inlineStr"/>
+      <c r="G93" s="3" t="inlineStr"/>
+      <c r="H93" s="3" t="inlineStr"/>
+    </row>
+    <row r="94" ht="15" customHeight="1">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>2018 Interim results - Highlights - English - HSBC
+Group</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2018/August/sea-180806-e-2018-interim-results-highlights.pdf</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>Aug 6 2018 ... Hong Kong Exchanges and Clearing
+Limited and The Stock Exchange of Hong Kong
+Limited take no responsibility for the contents of
+this ...</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="inlineStr">
+        <is>
+          <t>2018 Interim results - Highlights - Announcement
+made to the HK stock exchange - English</t>
+        </is>
+      </c>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="H94" s="3" t="inlineStr">
+        <is>
+          <t>D:20180801093121+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting - English -
+HSBC Group</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... Directors' remuneration policy on
+pages 175 to 184 of the Annual Report &amp; Accounts).
+... section-12-January-2018.pdf. External legal
+advisers have ...</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="H95" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>Global Trade and Receivables Finance presentation</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2019/190318-global-trade-and-receivables-finance-presentation.pdf</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>Mar 18 2019 ... ... regulatory changes). Any such
+forw ard-looking statements are based ... SEC”) on
+Form 20-F on 20 February 2019 (the “2018 20-F”).
+Non-GAAP ...</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="inlineStr">
+        <is>
+          <t>Global Trade and Receivables Finance presentation</t>
+        </is>
+      </c>
+      <c r="G96" s="3" t="inlineStr">
+        <is>
+          <t>Events and Presentations Documents</t>
+        </is>
+      </c>
+      <c r="H96" s="3" t="inlineStr">
+        <is>
+          <t>D:20190316201312Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="15" customHeight="1">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>According to the 2011 HSBC Annual Report and
+Accounts profit ...</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>Little could be anticipated at the time as to what
+was to hit Egypt in 2011 when truly “challenging
+circumstances” hit the economy and the financial
+sector.</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="inlineStr">
+        <is>
+          <t>According to the 2011 HSBC Annual Report and
+Accounts profit before tax rose 20 per cent while
+total deposits rose 6 per cent at year-end.</t>
+        </is>
+      </c>
+      <c r="G97" s="3" t="inlineStr">
+        <is>
+          <t>2011 HSBC Annual Report and Accounts</t>
+        </is>
+      </c>
+      <c r="H97" s="3" t="inlineStr">
+        <is>
+          <t>D:20120902125026Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2018</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2018/interim-results/the-hongkong-and-shanghai-banking-corporation-limited/180806-interim-report-2018.pdf</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>Aug 6 2018 ... In Australia the economy picked up
+pace supported by rising business sector activity
+and investment. The Hongkong and Shanghai Banking
+...</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2018</t>
+        </is>
+      </c>
+      <c r="G98" s="3" t="inlineStr">
+        <is>
+          <t>Interim results 2018</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="inlineStr">
+        <is>
+          <t>D:20180901110000Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="15" customHeight="1">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of HSBC for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 31st October 2017 Page 1
+of 1696 “For ...</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="inlineStr">
+        <is>
+          <t>Oct 31 2017 ... ... HSBC EQUITY FUND. 3RD FLORR
+MERCANTILE BANK CHAMBER 16 VEER NARIMAN ... SEC
+5/830 R K PURAM DELHI 110022 NEW DELHI INDIA. 968
+MS NEHA NEGI.</t>
+        </is>
+      </c>
+      <c r="F99" s="3" t="inlineStr"/>
+      <c r="G99" s="3" t="inlineStr"/>
+      <c r="H99" s="3" t="inlineStr">
+        <is>
+          <t>D:20171107174820+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="15" customHeight="1">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered | Annual
+Report 2022 Connecting the world's most dynamic
+markets Read our annual report Full year results
+2022 Read ...</t>
+        </is>
+      </c>
+      <c r="F100" s="3" t="inlineStr"/>
+      <c r="G100" s="3" t="inlineStr"/>
+      <c r="H100" s="3" t="inlineStr"/>
+    </row>
+    <row r="101" ht="15" customHeight="1">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>I have been locked out of my account. What should
+I do? | Standard ...</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/en/faq/i-have-been-locked-out-of-my-account-what-should-i-do/</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>I have been locked out of my account. What should
+I do? | Standard Chartered | For security reasons
+if you have three unsuccessful login attempts in
+any ...</t>
+        </is>
+      </c>
+      <c r="F101" s="3" t="inlineStr"/>
+      <c r="G101" s="3" t="inlineStr"/>
+      <c r="H101" s="3" t="inlineStr"/>
+    </row>
+    <row r="102" ht="15" customHeight="1">
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>pk-annual-report-2016.pdf</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>Mar 2 2017 ... Standard Chartered Bank [Pakistan)
+Ltd. Points of interest. •. Standard Chartered is
+proud to be operating in Pakistan as the largest
+and oldest ...</t>
+        </is>
+      </c>
+      <c r="F102" s="3" t="inlineStr">
+        <is>
+          <t>Page numbers 1-31.FH10</t>
+        </is>
+      </c>
+      <c r="G102" s="3" t="inlineStr"/>
+      <c r="H102" s="3" t="inlineStr">
+        <is>
+          <t>D:20170306111255+05'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="15" customHeight="1">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... A Chinese translation of the
+Annual Report and Accounts 2021 is available upon
+request from: Communications (Asia) Level 32. HSBC
+Main ...</t>
+        </is>
+      </c>
+      <c r="F103" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G103" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="H103" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="15" customHeight="1">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>Introduction pages 1 to 29 - 04 March-16.FH10</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>Mar 3 2016 ... ... Standard Chartered Annual
+Report 2015. NOTICE OF ANNUAL GENERAL MEETING.
+Notes: 1. The Share Transfer Books of the Bank
+will remain closed ...</t>
+        </is>
+      </c>
+      <c r="F104" s="3" t="inlineStr">
+        <is>
+          <t>Introduction pages 1 to 29 - 04 March-16.FH10</t>
+        </is>
+      </c>
+      <c r="G104" s="3" t="inlineStr"/>
+      <c r="H104" s="3" t="inlineStr">
+        <is>
+          <t>D:20160307195606+05'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="15" customHeight="1">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... HSBC Bank plc is exempt from
+publishing information required by. The Capital
+Requirements Country-by-Country Reporting.
+Regulations 2013 as ...</t>
+        </is>
+      </c>
+      <c r="F105" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G105" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H105" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="15" customHeight="1">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>Dec 31 2021 ... Model Risk Policy and Standards
+introduced in 2020. ... other three joint venture
+partners of HOUSe are Standard Chartered Bank
+Malaysia Berhad ...</t>
+        </is>
+      </c>
+      <c r="F106" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="G106" s="3" t="inlineStr">
+        <is>
+          <t>Financial and regulatory reports</t>
+        </is>
+      </c>
+      <c r="H106" s="3" t="inlineStr">
+        <is>
+          <t>D:20220218173806+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="15" customHeight="1">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Aug 1 2022 ... Read more on our purpose and values
+on pages 4 and 15 of our Annual Report and
+Accounts 2021. Opening up a world of opportunity.
+Key themes.</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="G107" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2022</t>
+        </is>
+      </c>
+      <c r="H107" s="3" t="inlineStr">
+        <is>
+          <t>D:20220731111324Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="15" customHeight="1">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 31st October 2017 Page 1
+of 1696 “For ...</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>Oct 31 2017 ... CLIENT RELATIONSHIP STANDARD
+CHARTERED BANK 19 N S RD. CALDUTTA 700001 WB
+INDIA. 100 M/S G K W LIMITED. LAL BAHADUR SHASTRI
+MARG BHANDUP ...</t>
+        </is>
+      </c>
+      <c r="F108" s="3" t="inlineStr"/>
+      <c r="G108" s="3" t="inlineStr"/>
+      <c r="H108" s="3" t="inlineStr">
+        <is>
+          <t>D:20171107174820+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="15" customHeight="1">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to ...</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... that shareholders will be asked to
+approve the remuneration policy will be at the
+2022 AGM. ... section-12-January-2018.pdf.
+External legal ...</t>
+        </is>
+      </c>
+      <c r="F109" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="G109" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="H109" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" ht="15" customHeight="1">
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B110" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>ANNUAL REPORT</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>... including the Accounting. Standards issued by
+ICAI and provisions of Section 29 of the Banking
+Regulation Act1949 and circulars and. Page 62. 60
+...</t>
+        </is>
+      </c>
+      <c r="F110" s="3" t="inlineStr">
+        <is>
+          <t>cover.cdr</t>
+        </is>
+      </c>
+      <c r="G110" s="3" t="inlineStr"/>
+      <c r="H110" s="3" t="inlineStr">
+        <is>
+          <t>D:20201127181404+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="15" customHeight="1">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10K/A of Standard Chartered
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>Indian Overseas Bank</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="inlineStr">
+        <is>
+          <t>Nov 12 2021 ... ... regulatory authorities. f.
+Successful bidder shall be held entirely
+responsible for the security and the protection of
+their workers at all ...</t>
+        </is>
+      </c>
+      <c r="F111" s="3" t="inlineStr"/>
+      <c r="G111" s="3" t="inlineStr"/>
+      <c r="H111" s="3" t="inlineStr">
+        <is>
+          <t>D:20211105115802+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="15" customHeight="1">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 8-K of Commerzbank for 2021
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... HSBC Bank plc is exempt from
+publishing information required by. The Capital
+Requirements Country-by-Country Reporting.
+Regulations 2013 as ...</t>
+        </is>
+      </c>
+      <c r="F112" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G112" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H112" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="15" customHeight="1">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 8-K of Brookline Bancorp for
+2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 30th September 2015 Page
+1 of 1630 ...</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>Sep 30 2015 ... MR BALASUBRAMANIAN. CHANDRASEKHAR
+MS DEEPANJALI. CHANDRASEKHAR. VILLA 8 MIAMI PARK
+AVENUE 35 JANABIYAH 571. 894 MR.FAKHREALAM ATIQ.</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="inlineStr"/>
+      <c r="G113" s="3" t="inlineStr"/>
+      <c r="H113" s="3" t="inlineStr">
+        <is>
+          <t>D:20151003110618+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" ht="15" customHeight="1">
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>Annual report 2022 | Standard Chartered | Annual
+Report 2022 Connecting the world's most dynamic
+markets Read our annual report Full year results
+2022 Read ...</t>
+        </is>
+      </c>
+      <c r="F114" s="3" t="inlineStr"/>
+      <c r="G114" s="3" t="inlineStr"/>
+      <c r="H114" s="3" t="inlineStr"/>
+    </row>
+    <row r="115" ht="15" customHeight="1">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>pk-annual-report-2016.pdf</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>Mar 2 2017 ... Standard Chartered Bank [Pakistan)
+Ltd. Points of interest. •. Standard Chartered is
+proud to be operating in Pakistan as the largest
+and oldest ...</t>
+        </is>
+      </c>
+      <c r="F115" s="3" t="inlineStr">
+        <is>
+          <t>Page numbers 1-31.FH10</t>
+        </is>
+      </c>
+      <c r="G115" s="3" t="inlineStr"/>
+      <c r="H115" s="3" t="inlineStr">
+        <is>
+          <t>D:20170306111255+05'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="15" customHeight="1">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>Conventional_Credit Card_AOF</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/bd-aof-conventional-cc-new.pdf</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>You do not have to be a Standard Chartered Bank
+account holder to apply for a Credit Card. • Use
+CAPITAL LETTERS. • Tick boxes as appropriate and
+write N/A ...</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="inlineStr">
+        <is>
+          <t>Conventional_Credit Card_AOF</t>
+        </is>
+      </c>
+      <c r="G116" s="3" t="inlineStr"/>
+      <c r="H116" s="3" t="inlineStr">
+        <is>
+          <t>D:20210919174922+07'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="15" customHeight="1">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>USD 50000000000 Programme for Issuance of
+Perpetual ...</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>Mar 30 2021 ... Prospective investors are referred
+to the section headed "Important Notices" of this.
+Offering Memorandum for further information. This
+Offering ...</t>
+        </is>
+      </c>
+      <c r="F117" s="3" t="inlineStr">
+        <is>
+          <t>USD 50000000000 Programme for Issuance of
+Perpetual Subordinated Contingent Convertible
+Securities</t>
+        </is>
+      </c>
+      <c r="G117" s="3" t="inlineStr">
+        <is>
+          <t>Issuance programmes</t>
+        </is>
+      </c>
+      <c r="H117" s="3" t="inlineStr">
+        <is>
+          <t>D:20210330154938+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="15" customHeight="1">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... executive Director with effect
+from 4 June 2021. At the conclusion of ... from 5
+October 2021. Save for the above all the Directors
+served.</t>
+        </is>
+      </c>
+      <c r="F118" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G118" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="H118" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="15" customHeight="1">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... Page. Strategic Report.
+Highlights. 2. Key themes of 2021. 3. Key
+financial metrics. 3. About HSBC Group. 4. Purpose
+and strategy. 4.</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G119" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H119" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="15" customHeight="1">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 31st October 2017 Page 1
+of 1696 “For ...</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>Oct 31 2017 ... CLIENT RELATIONSHIP STANDARD
+CHARTERED BANK 19 N S RD. CALDUTTA 700001 WB
+INDIA. 100 M/S G K W LIMITED. LAL BAHADUR SHASTRI
+MARG BHANDUP ...</t>
+        </is>
+      </c>
+      <c r="F120" s="3" t="inlineStr"/>
+      <c r="G120" s="3" t="inlineStr"/>
+      <c r="H120" s="3" t="inlineStr">
+        <is>
+          <t>D:20171107174820+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="15" customHeight="1">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 30th September 2015 Page
+1 of 1630 ...</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>Sep 30 2015 ... ... STANDARD CHARTERED BANK CASH.
+MGT DEPT 90 M G ROAD MUMBAI 400001 MAHARASHTRA ...
+3 NEW C.I.T ROAD 2ND FLOOR KOLKATA 700073 WB. 3486
+M/S KIRAN ...</t>
+        </is>
+      </c>
+      <c r="F121" s="3" t="inlineStr"/>
+      <c r="G121" s="3" t="inlineStr"/>
+      <c r="H121" s="3" t="inlineStr">
+        <is>
+          <t>D:20151003110618+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" ht="15" customHeight="1">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>Dec 31 2021 ... His interest in the Bank's related
+corporation is as disclosed in the Directors'
+Report on page 18. 2. Page 5. HSBC BANK MALAYSIA
+BERHAD. ( ...</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="G122" s="3" t="inlineStr">
+        <is>
+          <t>Financial and regulatory reports</t>
+        </is>
+      </c>
+      <c r="H122" s="3" t="inlineStr">
+        <is>
+          <t>D:20220218173806+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="15" customHeight="1">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>Aug 1 2022 ... Read more on our purpose and values
+on pages 4 and 15 of our Annual Report and
+Accounts 2021. ... (3). —. —. 0.2. 0.2. —. —.
+Other financial assets ...</t>
+        </is>
+      </c>
+      <c r="F123" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="G123" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2022</t>
+        </is>
+      </c>
+      <c r="H123" s="3" t="inlineStr">
+        <is>
+          <t>D:20220731111324Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="15" customHeight="1">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to ...</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... The ordinary shares of the Company
+trade under stock code 5 on The Stock Exchange of
+Hong Kong Limited. A Chinese translation of this
+Notice of ...</t>
+        </is>
+      </c>
+      <c r="F124" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="G124" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="H124" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="15" customHeight="1">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>IOB BSMD CO - Policy on Appointment of Statutory
+Central ...</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/upload/CEDocuments/iobPolicyAppointmentStatutoryCentralAuditorsStatutoryBranchAuditors.pdf</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>2021 has advised revised criteria for selection of
+Statutory Central Auditors (SCAs) and. Statutory
+Branch Auditors (SBAS) respectively. RBI has also
+advised ...</t>
+        </is>
+      </c>
+      <c r="F125" s="3" t="inlineStr"/>
+      <c r="G125" s="3" t="inlineStr"/>
+      <c r="H125" s="3" t="inlineStr">
+        <is>
+          <t>Wed Feb 9 10:23:39 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="15" customHeight="1">
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B126" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>ANNUAL REPORT</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>The standard Assets form 92.19 % of the total
+advances. Fraud Amt. of Rs 109489 ... 3 years to 5
+years. 2211201. 3543960. 5 o"kZ ls vf/kd@Over 5
+years. 2078995.</t>
+        </is>
+      </c>
+      <c r="F126" s="3" t="inlineStr">
+        <is>
+          <t>cover.cdr</t>
+        </is>
+      </c>
+      <c r="G126" s="3" t="inlineStr"/>
+      <c r="H126" s="3" t="inlineStr">
+        <is>
+          <t>D:20201127181404+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="15" customHeight="1">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>According to the 2011 HSBC Annual Report and
+Accounts profit ...</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>The. Page 4. 3. Report of the Directors. HSBC BANK
+EGYPT S.A.E. final decision however will need the
+approval of the. Supreme Council for Armed Forces
+(SCAF).</t>
+        </is>
+      </c>
+      <c r="F127" s="3" t="inlineStr">
+        <is>
+          <t>According to the 2011 HSBC Annual Report and
+Accounts profit before tax rose 20 per cent while
+total deposits rose 6 per cent at year-end.</t>
+        </is>
+      </c>
+      <c r="G127" s="3" t="inlineStr">
+        <is>
+          <t>2011 HSBC Annual Report and Accounts</t>
+        </is>
+      </c>
+      <c r="H127" s="3" t="inlineStr">
+        <is>
+          <t>D:20120902125026Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="15" customHeight="1">
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>Indian Overseas Bank</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>Nov 12 2021 ... ... 2021. INFORMATION TECHNOLOGY
+DEPARTMENT. (ISO/IEC 27001:2013 CERTIFIED).
+CENTRAL OFFICE. INDIAN OVERSEAS BANK ... 3. 5.
+955. EPPODUMVEN. DRAM.</t>
+        </is>
+      </c>
+      <c r="F128" s="3" t="inlineStr"/>
+      <c r="G128" s="3" t="inlineStr"/>
+      <c r="H128" s="3" t="inlineStr">
+        <is>
+          <t>D:20211105115802+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="15" customHeight="1">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Standard
+Chartered for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>Indian Overseas Bank</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.iob.in/Upload/Tender/IOB91202164214PM_RFPITD0132122_VKYC.pdf</t>
+        </is>
+      </c>
+      <c r="E129" s="3" t="inlineStr">
+        <is>
+          <t>Sep 1 2021 ... 3.a Date of Pre Bid Meeting.
+14.09.2021 at 1500 hours at Bank's Information.
+Technology Department Chennai. 4. Bid Submission
+Mode. https ...</t>
+        </is>
+      </c>
+      <c r="F129" s="3" t="inlineStr"/>
+      <c r="G129" s="3" t="inlineStr"/>
+      <c r="H129" s="3" t="inlineStr">
+        <is>
+          <t>D:20210901160110+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="15" customHeight="1">
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
+Bank for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... 1 Capital is calculated in
+accordance with the Banking (Capital) Rules issued
+by the Hong Kong Monetary Authority ('HKMA') under
+section 97C(1).</t>
+        </is>
+      </c>
+      <c r="F130" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G130" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="H130" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" ht="15" customHeight="1">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
+Bank for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>GEM Offering Memorandum dated 1 June 2023</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>Jun 1 2023 ... ... Section 5 of the Securities Act
+provided by Rule 144A thereunder. ... Banking
+Corporation Limited. 1 June 2023. Page 3. - iii -.
+IMPORTANT NOTICES.</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="inlineStr">
+        <is>
+          <t>GEM Offering Memorandum dated 1 June 2023</t>
+        </is>
+      </c>
+      <c r="G131" s="3" t="inlineStr">
+        <is>
+          <t>Issuance programmes</t>
+        </is>
+      </c>
+      <c r="H131" s="3" t="inlineStr">
+        <is>
+          <t>D:20230601164024+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="15" customHeight="1">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
+Bank for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D132" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ... 2022 but to move slowly and to
+keep monetary policy accommodative overall ...
+Band 4 and 5. Sub-standard. B– to C. CRR6 to CRR8.
+Band 6. Impaired.</t>
+        </is>
+      </c>
+      <c r="F132" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G132" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H132" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221174857Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="15" customHeight="1">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
+Bank for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="inlineStr">
         <is>
           <t>Aug 1 2022 ... Our global reach and expertise help
 domestic and international businesses around the
@@ -822,152 +6002,1227 @@
 Markets (' ...</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F133" s="3" t="inlineStr">
         <is>
           <t>Interim Report 2022</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G133" s="3" t="inlineStr">
         <is>
           <t>Interim Results 2022</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="H133" s="3" t="inlineStr">
         <is>
           <t>D:20220731111324Z</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Annual Registration Document of Standard Chartered
+    <row r="134" ht="15" customHeight="1">
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
 Bank for 2022 filetype: pdf</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="B134" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
         <is>
           <t>Notice of 2019 Annual General Meeting -
 Announcement made to ...</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D134" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Mar 6 2019 ... The Board of Directors of HSBC
-Holdings plc as at the date of this document
-comprises: Mark Tucker* John. Flint Kathleen
-Casey† Laura Cha† ...</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... The ordinary shares of the Company
+trade under stock code 5 on The Stock Exchange of
+Hong Kong Limited. A Chinese translation of this
+Notice of ...</t>
+        </is>
+      </c>
+      <c r="F134" s="3" t="inlineStr">
         <is>
           <t>Notice of 2019 Annual General Meeting -
 Announcement made to the HK stock exchange -
 English</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G134" s="3" t="inlineStr">
         <is>
           <t>Stock exchange announcement</t>
         </is>
       </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="H134" s="3" t="inlineStr">
         <is>
           <t>D:20190225205638Z</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Annual Registration Document of Standard Chartered
+    <row r="135" ht="15" customHeight="1">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
 Bank for 2022 filetype: pdf</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B135" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc announces indicative maximum
+acceptance ...</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/november/sea-201109-hsbc-tender-offers-indicative-maximum-acceptance-amount.pdf</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>Nov 9 2020 ... Floating Rate Notes due September
+2022 (ISIN: XS1586214956) (of which EUR1500000000
+is ... 3-bis of the Legislative Decree No. 58 of
+24 ...</t>
+        </is>
+      </c>
+      <c r="F135" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc announces indicative maximum
+acceptance amount in relation to its invitation to
+purchase notes for cash</t>
+        </is>
+      </c>
+      <c r="G135" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="H135" s="3" t="inlineStr">
+        <is>
+          <t>D:20201109163446+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="15" customHeight="1">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
+Bank for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B136" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 31st October 2017 Page 1
+of 1696 “For ...</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>Oct 31 2017 ... CLIENT RELATIONSHIP STANDARD
+CHARTERED BANK 19 N S RD. CALDUTTA 700001 WB
+INDIA. 100 M/S G K W LIMITED. LAL BAHADUR SHASTRI
+MARG BHANDUP ...</t>
+        </is>
+      </c>
+      <c r="F136" s="3" t="inlineStr"/>
+      <c r="G136" s="3" t="inlineStr"/>
+      <c r="H136" s="3" t="inlineStr">
+        <is>
+          <t>D:20171107174820+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="15" customHeight="1">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Forms 3,4, and 5 of Columbia
+Bank for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 30th September 2015 Page
+1 of 1630 ...</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>Sep 30 2015 ... ... 4 HIND LEVER CHEMICALS
+LIMITED. A-5PHASE 11-B FOCAL POINT RAJPURA ... 3/2
+DALHOUSIE SQUARE EAST CALCUTTA 700001 WEST BENGAL.
+3476 ISNEHA ...</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="inlineStr"/>
+      <c r="G137" s="3" t="inlineStr"/>
+      <c r="H137" s="3" t="inlineStr">
+        <is>
+          <t>D:20151003110618+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="15" customHeight="1">
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: Form 144 of Brookline Bancorp
+for 2022 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 30th September 2015 Page
+1 of 1630 ...</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>Sep 30 2015 ... ... SEC.SCHOOL-GPF. JAYASREE
+GHOSE. CANNING ROAD NEW DELHI 110001. 2855 ... 144
+LAKE ROAD KOLKATA KOLKATA 700029. 6768 KIRAN
+ARORA. 116 B B CHATERJEE ...</t>
+        </is>
+      </c>
+      <c r="F138" s="3" t="inlineStr"/>
+      <c r="G138" s="3" t="inlineStr"/>
+      <c r="H138" s="3" t="inlineStr">
+        <is>
+          <t>D:20151003110618+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" ht="15" customHeight="1">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of Prathama U.P. Gramin
+Bank for 2021 filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>ANNUAL REPORT</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>Standards issued by ICAI and provisions of Section
+29 of the Banking Regulation Act1949 and circulars
+and ... In terms of Prathama U.P. Gramin Bank
+Pension ...</t>
+        </is>
+      </c>
+      <c r="F139" s="3" t="inlineStr">
+        <is>
+          <t>cover.cdr</t>
+        </is>
+      </c>
+      <c r="G139" s="3" t="inlineStr"/>
+      <c r="H139" s="3" t="inlineStr">
+        <is>
+          <t>D:20201127181404+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="15" customHeight="1">
+      <c r="A140" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B140" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>Results and announcements | HSBC Holdings plc</t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/investors/results-and-announcements</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>More in this section. All reporting. Visit our
+full archive of financial results and other
+regulatory documents ...</t>
+        </is>
+      </c>
+      <c r="F140" s="3" t="inlineStr"/>
+      <c r="G140" s="3" t="inlineStr"/>
+      <c r="H140" s="3" t="inlineStr"/>
+    </row>
+    <row r="141" ht="15" customHeight="1">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
+        </is>
+      </c>
+      <c r="E141" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... 2021 payout ratio: 40.3%. Target:
+sustainable cash dividends with a payout ratio of
+40% to 55% from 2022 onwards. For our financial
+targets we ...</t>
+        </is>
+      </c>
+      <c r="F141" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G141" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H141" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221132403Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="15" customHeight="1">
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B142" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual ...</t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... A Chinese translation of the
+Annual Report and Accounts 2021 is available upon
+request from: Communications (Asia) Level 32. HSBC
+Main ...</t>
+        </is>
+      </c>
+      <c r="F142" s="3" t="inlineStr">
+        <is>
+          <t>The Hongkong and Shanghai Banking Corporation
+Limited - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G142" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="H142" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221201520+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" ht="15" customHeight="1">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Net Zero Aligned Finance - Approach Update</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/who-we-are/pdf/211214-financed-emissions-approach-and-methodology-update.pdf</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>Dec 14 2021 ... 10 HSBC intends to refresh its
+facilitated emissions baseline and set ... K
+furnished to or filed with the SEC subsequent to
+the 2020 Form 20 ...</t>
+        </is>
+      </c>
+      <c r="F143" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Net Zero Aligned Finance</t>
+        </is>
+      </c>
+      <c r="G143" s="3" t="inlineStr">
+        <is>
+          <t>Approach Update</t>
+        </is>
+      </c>
+      <c r="H143" s="3" t="inlineStr">
+        <is>
+          <t>D:20211213095242Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="15" customHeight="1">
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B144" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Green Bonds Report</t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/green-and-sustainability-bonds/pdfs/211214-hsbc-green-bonds-report-2021.pdf?download=1</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>xi HSBC has continued to broaden the horizons of
+climate finance by supporting Egypt in launching
+the first sovereign green bond in the Middle East
+and North ...</t>
+        </is>
+      </c>
+      <c r="F144" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Green Bonds Report</t>
+        </is>
+      </c>
+      <c r="G144" s="3" t="inlineStr">
+        <is>
+          <t>Green and Sustainability bonds</t>
+        </is>
+      </c>
+      <c r="H144" s="3" t="inlineStr">
+        <is>
+          <t>D:20211207124418Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="15" customHeight="1">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>Aug 1 2022 ... Read more on page 10. Delivery
+against our financial targets. Return on average
+tangible equity. (annualised). 9.9%.</t>
+        </is>
+      </c>
+      <c r="F145" s="3" t="inlineStr">
+        <is>
+          <t>Interim Report 2022</t>
+        </is>
+      </c>
+      <c r="G145" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2022</t>
+        </is>
+      </c>
+      <c r="H145" s="3" t="inlineStr">
+        <is>
+          <t>D:20220731111324Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" ht="15" customHeight="1">
+      <c r="A146" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B146" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank plc - Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D146" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>Feb 21 2022 ... HSBC Bank plc is exempt from
+publishing information required by. The Capital
+Requirements Country-by-Country Reporting.
+Regulations 2013 as ...</t>
+        </is>
+      </c>
+      <c r="F146" s="3" t="inlineStr">
+        <is>
+          <t>Annual Report and Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G146" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H146" s="3" t="inlineStr">
+        <is>
+          <t>D:20220222012612+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="15" customHeight="1">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>Feb 23 2021 ... over $10k annually in client
+revenue across all products ... in accordance with
+SEC rules and regulations (“Alternative
+Performance Measures”).</t>
+        </is>
+      </c>
+      <c r="F147" s="3" t="inlineStr">
+        <is>
+          <t>Presentation to Investors and Analysts</t>
+        </is>
+      </c>
+      <c r="G147" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2020</t>
+        </is>
+      </c>
+      <c r="H147" s="3" t="inlineStr">
+        <is>
+          <t>D:20210611145817+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="15" customHeight="1">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Global Trade and Receivables Finance</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2020/200928-hsbc-global-trade-and-receivables-finance.pdf</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>Sep 28 2020 ... ... SEC on Form 6-K on 28. April
+2020 (the “1Q 2020 Earnings Release”) and our
+Interim Financial Report for the six months ended
+30 June 2020 ...</t>
+        </is>
+      </c>
+      <c r="F148" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Global Trade and Receivables Finance</t>
+        </is>
+      </c>
+      <c r="G148" s="3" t="inlineStr">
+        <is>
+          <t>Investor event</t>
+        </is>
+      </c>
+      <c r="H148" s="3" t="inlineStr">
+        <is>
+          <t>D:20200928120333+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="15" customHeight="1">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>GEM Offering Memorandum dated 1 June 2023</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>Jun 1 2023 ... Each of HSBC. Bank Middle East
+Limited ("HBME") and HSBC Continental ...
+regulatory capital. If regulatory approval for key
+capital models is ...</t>
+        </is>
+      </c>
+      <c r="F149" s="3" t="inlineStr">
+        <is>
+          <t>GEM Offering Memorandum dated 1 June 2023</t>
+        </is>
+      </c>
+      <c r="G149" s="3" t="inlineStr">
+        <is>
+          <t>Issuance programmes</t>
+        </is>
+      </c>
+      <c r="H149" s="3" t="inlineStr">
+        <is>
+          <t>D:20230601164024+01'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="15" customHeight="1">
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... ... 2022 but to move slowly and to
+keep monetary policy accommodative overall. Policy
+tightening in emerging markets has already begun
+in order ...</t>
+        </is>
+      </c>
+      <c r="F150" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Bank Middle East Limited Annual Report and
+Accounts 2021</t>
+        </is>
+      </c>
+      <c r="G150" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2021</t>
+        </is>
+      </c>
+      <c r="H150" s="3" t="inlineStr">
+        <is>
+          <t>D:20220221174857Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="15" customHeight="1">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>Dec 31 2021 ... His interest in the Bank's related
+corporation is as disclosed in the Directors'
+Report on page 18. 2. Page 5. HSBC BANK MALAYSIA
+BERHAD. ( ...</t>
+        </is>
+      </c>
+      <c r="F151" s="3" t="inlineStr">
+        <is>
+          <t>Financial Statements - 31 December 2021</t>
+        </is>
+      </c>
+      <c r="G151" s="3" t="inlineStr">
+        <is>
+          <t>Financial and regulatory reports</t>
+        </is>
+      </c>
+      <c r="H151" s="3" t="inlineStr">
+        <is>
+          <t>D:20220218173806+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="15" customHeight="1">
+      <c r="A152" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B152" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Pillar 3 Disclosures at 30 June
+2020</t>
+        </is>
+      </c>
+      <c r="D152" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>Jun 30 2020 ... The Group has adopted the EU's
+regulatory transitional arrangements for IFRS 9
+'Financial Instruments'. A number of tables in
+this document ...</t>
+        </is>
+      </c>
+      <c r="F152" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc Pillar 3 Disclosures at 30 June
+2020</t>
+        </is>
+      </c>
+      <c r="G152" s="3" t="inlineStr">
+        <is>
+          <t>Interim Results 2019</t>
+        </is>
+      </c>
+      <c r="H152" s="3" t="inlineStr">
+        <is>
+          <t>D:20200807230100+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="15" customHeight="1">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
         <is>
           <t>USD 50000000000 Programme for Issuance of
 Perpetual ...</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D153" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Mar 30 2021 ... capital buffer ("CCyB") in a
-standard risk environment that the Bank ...
-Information regarding the Issuer is set out in the
-Registration Document ...</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>Mar 30 2021 ... ...
+hsbc-holdings-plc/210223-sec-specific-disclosures-
+· 2020.pdf?download ... Regulation") or section 86
+of the FSMA respectively from the ...</t>
+        </is>
+      </c>
+      <c r="F153" s="3" t="inlineStr">
         <is>
           <t>USD 50000000000 Programme for Issuance of
 Perpetual Subordinated Contingent Convertible
 Securities</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G153" s="3" t="inlineStr">
         <is>
           <t>Issuance programmes</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="H153" s="3" t="inlineStr">
         <is>
           <t>D:20210330154938+01'00'</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Annual Registration Document of Standard Chartered
-Bank for 2022 filetype: pdf</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Indian Overseas Bank</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Nov 12 2021 ... ... document fees and EMD Amount.
-Description. Amount in. INR. NAME OF ISSUING. BANK
-&amp; BRANCH. UTR NUMBER. Cost of Bid Document. 15000.
-BID ...</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>D:20211105115802+05'30'</t>
+    <row r="154" ht="15" customHeight="1">
+      <c r="A154" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B154" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>ESG Datapack 2021 (Excel)</t>
+        </is>
+      </c>
+      <c r="D154" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-esg-datapack-2021-excel.xlsx?download=1</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>Feb 22 2022 ... 1 Included within the $750bn-$1tn
+sustainable finance and investment total is
+$0.29bn-worth of advisory services on HSBC-issued
+green/SDG bonds ...</t>
+        </is>
+      </c>
+      <c r="F154" s="3" t="inlineStr"/>
+      <c r="G154" s="3" t="inlineStr"/>
+      <c r="H154" s="3" t="inlineStr"/>
+    </row>
+    <row r="155" ht="15" customHeight="1">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc announces results of its tender
+offers for nine ...</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200819-tender-offer-results-press-release-hk-stock-exchange.pdf</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>Aug 19 2020 ... Overseas Regulatory Announcement.
+The attached announcement has been released to the
+other stock exchanges on which HSBC Holdings plc
+is listed.</t>
+        </is>
+      </c>
+      <c r="F155" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc announces results of its tender
+offers for nine series of notes</t>
+        </is>
+      </c>
+      <c r="G155" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcements</t>
+        </is>
+      </c>
+      <c r="H155" s="3" t="inlineStr">
+        <is>
+          <t>D:20200819183413+08'00'</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="15" customHeight="1">
+      <c r="A156" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>HSBC Holdings plc - Capital and Risk Management
+Pillar 3 ...</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/group/2015/annual-results/hsbc-holdings-plc/hsbc-holdings-plc-capital-and-risk-management-pillar-3-disclosures-at-31-december-2015.pdf</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>Dec 31 2015 ... below the 10% regulatory floor.
+The Hong Kong credit card. EAD model ... appendix
+to Risk Section on page 217 of the Annual Report
+and ...</t>
+        </is>
+      </c>
+      <c r="F156" s="3" t="inlineStr">
+        <is>
+          <t>Capital and Risk Management Pillar 3 Disclosures
+at 31 December 2015</t>
+        </is>
+      </c>
+      <c r="G156" s="3" t="inlineStr">
+        <is>
+          <t>Annual Results 2015</t>
+        </is>
+      </c>
+      <c r="H156" s="3" t="inlineStr">
+        <is>
+          <t>D:20160220133333Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="15" customHeight="1">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting - English -
+HSBC Group</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="inlineStr">
+        <is>
+          <t>Mar 6 2019 ... that shareholders will be asked to
+approve the remuneration policy will be at the
+2022 AGM. ... section-12-January-2018.pdf.
+External legal ...</t>
+        </is>
+      </c>
+      <c r="F157" s="3" t="inlineStr">
+        <is>
+          <t>Notice of 2019 Annual General Meeting -
+Announcement made to the HK stock exchange -
+English</t>
+        </is>
+      </c>
+      <c r="G157" s="3" t="inlineStr">
+        <is>
+          <t>Stock exchange announcement</t>
+        </is>
+      </c>
+      <c r="H157" s="3" t="inlineStr">
+        <is>
+          <t>D:20190225205638Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="15" customHeight="1">
+      <c r="A158" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B158" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>1Q 2021 Data Pack (Excel file)</t>
+        </is>
+      </c>
+      <c r="D158" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/1q/pdf/hsbc-holdings-plc/210427-1q-2021-data-pack-excel.xlsx</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>Apr 27 2021 ... ... HSBC HOLDINGS PLC. 8. 9 Data
+Pack. 10. 11 1Q 2021. 12. 13. 14. 15 The ...
+regulatory matters — (4) (3) (4) (1) (12). 69. 70
+Share of ...</t>
+        </is>
+      </c>
+      <c r="F158" s="3" t="inlineStr"/>
+      <c r="G158" s="3" t="inlineStr"/>
+      <c r="H158" s="3" t="inlineStr"/>
+    </row>
+    <row r="159" ht="15" customHeight="1">
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>Issue of Up to GBP 25000000 Notes linked to
+UKSED3P ...</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/fixed-income-securities/subsidiaries/2029/may/gb00br9pn492-final-terms.pdf</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>May 24 2023 ... Company being required to be
+regulated by any additional regulatory authority
+or being ... "Hedging Counterparty" means HSBC
+Bank plc or any ...</t>
+        </is>
+      </c>
+      <c r="F159" s="3" t="inlineStr">
+        <is>
+          <t>Issue of Up to GBP 25000000 Notes linked to
+UKSED3P Investments Limited Preference Shares
+Series 2355</t>
+        </is>
+      </c>
+      <c r="G159" s="3" t="inlineStr">
+        <is>
+          <t>Fixed income securities</t>
+        </is>
+      </c>
+      <c r="H159" s="3" t="inlineStr">
+        <is>
+          <t>D:20230323135737Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="15" customHeight="1">
+      <c r="A160" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B160" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 30th September 2015 Page
+1 of 1630 ...</t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>Sep 30 2015 ... MOSES ROAD MAHALAXMI MUMBAI 400
+011. 400014 MAHARASHTRA. 36 M/S L &amp; L SERVICES
+PVT. LTD. Y-14BLOCK EPSECTOR V SALT LAKE KOLKATA
+700091 W.B..</t>
+        </is>
+      </c>
+      <c r="F160" s="3" t="inlineStr"/>
+      <c r="G160" s="3" t="inlineStr"/>
+      <c r="H160" s="3" t="inlineStr">
+        <is>
+          <t>D:20151003110618+05'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" ht="15" customHeight="1">
+      <c r="A161" s="3" t="inlineStr">
+        <is>
+          <t>SEC and Regulatory: 10-Q/A of HSBC for 2022
+filetype: pdf</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>Unclaimed accounts as on 31st October 2017 Page 1
+of 1696 “For ...</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+        </is>
+      </c>
+      <c r="E161" s="3" t="inlineStr">
+        <is>
+          <t>Oct 31 2017 ... ... HSBC EQUITY FUND. 3RD FLORR
+MERCANTILE BANK CHAMBER 16 VEER NARIMAN ... 103RD
+STREET NEHRU NAGAR GANAPATHY COIMBATORE 641006.
+INDIA. 3690 MR ...</t>
+        </is>
+      </c>
+      <c r="F161" s="3" t="inlineStr"/>
+      <c r="G161" s="3" t="inlineStr"/>
+      <c r="H161" s="3" t="inlineStr">
+        <is>
+          <t>D:20171107174820+05'30'</t>
         </is>
       </c>
     </row>

--- a/data/evaluate/site-search-results.xlsx
+++ b/data/evaluate/site-search-results.xlsx
@@ -498,8 +498,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+          <t>https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -568,8 +567,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/in/credit-cards/tariffs-and-charges/</t>
+          <t>https://www.sc.com/in/credit-cards/tariffs-and-charges/</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -604,8 +602,7 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
+          <t>https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -681,8 +678,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
+          <t>https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -722,8 +718,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -767,8 +762,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -812,8 +806,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -858,8 +851,7 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -906,8 +898,7 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -953,8 +944,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
+          <t>https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1024,8 +1014,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1071,8 +1060,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/upload/CEDocuments/iobPolicyAppointmentStatutoryCentralAuditorsStatutoryBranchAuditors.pdf</t>
+          <t>https://www.iob.in/upload/CEDocuments/iobPolicyAppointmentStatutoryCentralAuditorsStatutoryBranchAuditors.pdf</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1108,8 +1096,7 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1153,8 +1140,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
+          <t>https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1191,8 +1177,7 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/upload/CEDocuments/UNCL-WEB01-2019-04.pdf</t>
+          <t>https://www.iob.in/upload/CEDocuments/UNCL-WEB01-2019-04.pdf</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1228,8 +1213,7 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/upload/CEDocuments/UNCL-WEB02-2019-04.pdf</t>
+          <t>https://www.iob.in/upload/CEDocuments/UNCL-WEB02-2019-04.pdf</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1265,8 +1249,7 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2018/interim-results/the-hongkong-and-shanghai-banking-corporation-limited/180806-interim-report-2018.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2018/interim-results/the-hongkong-and-shanghai-banking-corporation-limited/180806-interim-report-2018.pdf</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1311,8 +1294,7 @@
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/en/faq/i-have-been-locked-out-of-my-account-what-should-i-do/</t>
+          <t>https://www.sc.com/en/faq/i-have-been-locked-out-of-my-account-what-should-i-do/</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1344,8 +1326,7 @@
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/upload/CEDocuments/UNCL-WEB04-2019-04.pdf</t>
+          <t>https://www.iob.in/upload/CEDocuments/UNCL-WEB04-2019-04.pdf</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1381,8 +1362,7 @@
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/upload/CEDocuments/UNCL-WEB05-2019-04.pdf</t>
+          <t>https://www.iob.in/upload/CEDocuments/UNCL-WEB05-2019-04.pdf</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1418,8 +1398,7 @@
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.commerzbank.com/media/en/presse/presentations/Commerzbank_Basispraesentation.pdf</t>
+          <t>https://www.commerzbank.com/media/en/presse/presentations/Commerzbank_Basispraesentation.pdf</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1459,8 +1438,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1504,8 +1482,7 @@
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.commerzbank.com/media/en/research/economic_research/aktuell_1/GrowthandInflation.pdf</t>
+          <t>https://www.commerzbank.com/media/en/research/economic_research/aktuell_1/GrowthandInflation.pdf</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1541,8 +1518,7 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.commerzbank.com/en/hauptnavigation/institutions/kyc/kyc.html</t>
+          <t>https://www.commerzbank.com/en/hauptnavigation/institutions/kyc/kyc.html</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1574,8 +1550,7 @@
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.commerzbank.com/media/en/presse/presentations/Commerzbank_Basispraesentation.pdf</t>
+          <t>https://www.commerzbank.com/media/en/presse/presentations/Commerzbank_Basispraesentation.pdf</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1615,8 +1590,7 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.commerzbank.com/media/en/research/economic_research/aktuell_1/GrowthandInflation.pdf</t>
+          <t>https://www.commerzbank.com/media/en/research/economic_research/aktuell_1/GrowthandInflation.pdf</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1652,8 +1626,7 @@
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1697,8 +1670,7 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.commerzbank.com/media/nachhaltigkeit/iv__markt___kunden/Sustainable_Trade_Part_1_EN.pdf</t>
+          <t>https://www.commerzbank.com/media/nachhaltigkeit/iv__markt___kunden/Sustainable_Trade_Part_1_EN.pdf</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1734,8 +1706,7 @@
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+          <t>https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1768,8 +1739,7 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+          <t>https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1805,8 +1775,7 @@
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -1851,8 +1820,7 @@
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/in/assets/pws/pdf/Unclaimed_Accounts1.pdf</t>
+          <t>https://www.sc.com/in/assets/pws/pdf/Unclaimed_Accounts1.pdf</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -1888,8 +1856,7 @@
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+          <t>https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1921,8 +1888,7 @@
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
+          <t>https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1963,8 +1929,7 @@
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+          <t>https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
@@ -2000,8 +1965,7 @@
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -2046,8 +2010,7 @@
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/in/assets/pws/pdf/Unclaimed_Accounts1.pdf</t>
+          <t>https://www.sc.com/in/assets/pws/pdf/Unclaimed_Accounts1.pdf</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -2083,8 +2046,7 @@
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
@@ -2128,8 +2090,7 @@
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/investors/results-and-announcements</t>
+          <t>https://www.hsbc.com/investors/results-and-announcements</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
@@ -2161,8 +2122,7 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/who-we-are/esg-and-responsible-business/esg-reporting-centre</t>
+          <t>https://www.hsbc.com/who-we-are/esg-and-responsible-business/esg-reporting-centre</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
@@ -2193,8 +2153,7 @@
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/who-we-are/pdf/211214-financed-emissions-approach-and-methodology-update.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/who-we-are/pdf/211214-financed-emissions-approach-and-methodology-update.pdf</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -2238,8 +2197,7 @@
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -2284,8 +2242,7 @@
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -2331,8 +2288,7 @@
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -2377,8 +2333,7 @@
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-strategic-report-2021.pdf?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-strategic-report-2021.pdf?download=1</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -2422,8 +2377,7 @@
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/annual/pdfs/hsbc-holdings-plc/230221-esg-review-2022.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/annual/pdfs/hsbc-holdings-plc/230221-esg-review-2022.pdf</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
@@ -2467,8 +2421,7 @@
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/green-and-sustainability-bonds/pdfs/211214-hsbc-green-bonds-report-2021.pdf?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/green-and-sustainability-bonds/pdfs/211214-hsbc-green-bonds-report-2021.pdf?download=1</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
@@ -2512,8 +2465,7 @@
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-strategic-report-2020.pdf?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-strategic-report-2020.pdf?download=1</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2557,8 +2509,7 @@
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
@@ -2602,8 +2553,7 @@
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
@@ -2647,8 +2597,7 @@
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2020/200928-hsbc-global-trade-and-receivables-finance.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2020/200928-hsbc-global-trade-and-receivables-finance.pdf</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
@@ -2692,8 +2641,7 @@
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-esg-datapack-2021-excel.xlsx?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-esg-datapack-2021-excel.xlsx?download=1</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2725,8 +2673,7 @@
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
@@ -2770,8 +2717,7 @@
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2017/20170405-hsbc-global-trade-receivables-finance-web-cast-presentation.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2017/20170405-hsbc-global-trade-receivables-finance-web-cast-presentation.pdf</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2816,8 +2762,7 @@
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2864,8 +2809,7 @@
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2912,8 +2856,7 @@
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -2959,8 +2902,7 @@
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2019/190318-global-trade-and-receivables-finance-presentation.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2019/190318-global-trade-and-receivables-finance-presentation.pdf</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -3005,8 +2947,7 @@
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -3052,8 +2993,7 @@
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2018/August/sea-180806-e-2018-interim-results-highlights.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2018/August/sea-180806-e-2018-interim-results-highlights.pdf</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -3098,8 +3038,7 @@
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -3144,8 +3083,7 @@
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+          <t>https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -3182,8 +3120,7 @@
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -3229,8 +3166,7 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -3275,8 +3211,7 @@
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -3319,8 +3254,7 @@
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3365,8 +3299,7 @@
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -3413,8 +3346,7 @@
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+          <t>https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3451,8 +3383,7 @@
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+          <t>https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr">
@@ -3488,8 +3419,7 @@
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/investors/results-and-announcements</t>
+          <t>https://www.hsbc.com/investors/results-and-announcements</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
@@ -3521,8 +3451,7 @@
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/who-we-are/esg-and-responsible-business/esg-reporting-centre</t>
+          <t>https://www.hsbc.com/who-we-are/esg-and-responsible-business/esg-reporting-centre</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
@@ -3553,8 +3482,7 @@
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
@@ -3599,8 +3527,7 @@
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
@@ -3645,8 +3572,7 @@
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
@@ -3690,8 +3616,7 @@
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/annual/pdfs/hsbc-holdings-plc/230221-esg-review-2022.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/annual/pdfs/hsbc-holdings-plc/230221-esg-review-2022.pdf</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
@@ -3735,8 +3660,7 @@
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/who-we-are/pdf/211214-financed-emissions-approach-and-methodology-update.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/who-we-are/pdf/211214-financed-emissions-approach-and-methodology-update.pdf</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
@@ -3780,8 +3704,7 @@
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-strategic-report-2021.pdf?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-strategic-report-2021.pdf?download=1</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
@@ -3825,8 +3748,7 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/green-and-sustainability-bonds/pdfs/211214-hsbc-green-bonds-report-2021.pdf?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/green-and-sustainability-bonds/pdfs/211214-hsbc-green-bonds-report-2021.pdf?download=1</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
@@ -3871,8 +3793,7 @@
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
@@ -3917,8 +3838,7 @@
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
@@ -3962,8 +3882,7 @@
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-strategic-report-2020.pdf?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-strategic-report-2020.pdf?download=1</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
@@ -4007,8 +3926,7 @@
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -4052,8 +3970,7 @@
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2020/200928-hsbc-global-trade-and-receivables-finance.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2020/200928-hsbc-global-trade-and-receivables-finance.pdf</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -4097,8 +4014,7 @@
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -4142,8 +4058,7 @@
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-esg-datapack-2021-excel.xlsx?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-esg-datapack-2021-excel.xlsx?download=1</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
@@ -4176,8 +4091,7 @@
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -4222,8 +4136,7 @@
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -4267,8 +4180,7 @@
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/1q/pdf/hsbc-holdings-plc/210427-1q-2021-data-pack-excel.xlsx</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/1q/pdf/hsbc-holdings-plc/210427-1q-2021-data-pack-excel.xlsx</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
@@ -4300,8 +4212,7 @@
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/investors/investing-in-hsbc/consensus-and-analyst-coverage</t>
+          <t>https://www.hsbc.com/investors/investing-in-hsbc/consensus-and-analyst-coverage</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
@@ -4334,8 +4245,7 @@
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2018/August/sea-180806-e-2018-interim-results-highlights.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2018/August/sea-180806-e-2018-interim-results-highlights.pdf</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
@@ -4381,8 +4291,7 @@
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
@@ -4428,8 +4337,7 @@
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2019/190318-global-trade-and-receivables-finance-presentation.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2019/190318-global-trade-and-receivables-finance-presentation.pdf</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
@@ -4474,8 +4382,7 @@
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
@@ -4521,8 +4428,7 @@
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2018/interim-results/the-hongkong-and-shanghai-banking-corporation-limited/180806-interim-report-2018.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2018/interim-results/the-hongkong-and-shanghai-banking-corporation-limited/180806-interim-report-2018.pdf</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
@@ -4567,8 +4473,7 @@
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+          <t>https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
@@ -4604,8 +4509,7 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+          <t>https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -4638,8 +4542,7 @@
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/en/faq/i-have-been-locked-out-of-my-account-what-should-i-do/</t>
+          <t>https://www.sc.com/en/faq/i-have-been-locked-out-of-my-account-what-should-i-do/</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
@@ -4671,8 +4574,7 @@
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
+          <t>https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -4713,8 +4615,7 @@
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -4759,8 +4660,7 @@
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
+          <t>https://www.sc.com/global/av/pk-report-2015-final.pdf</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
@@ -4800,8 +4700,7 @@
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -4845,8 +4744,7 @@
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
@@ -4890,8 +4788,7 @@
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
@@ -4936,8 +4833,7 @@
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+          <t>https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -4974,8 +4870,7 @@
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -5021,8 +4916,7 @@
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
+          <t>https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
@@ -5062,8 +4956,7 @@
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
+          <t>https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
@@ -5099,8 +4992,7 @@
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -5145,8 +5037,7 @@
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+          <t>https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -5181,8 +5072,7 @@
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
+          <t>https://www.sc.com/en/investors/financial-results/annual-report-2022/</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
@@ -5214,8 +5104,7 @@
       </c>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
+          <t>https://www.sc.com/global/av/pk-annual-report-2016.pdf</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -5255,8 +5144,7 @@
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/bd-aof-conventional-cc-new.pdf</t>
+          <t>https://www.sc.com/global/av/bd-aof-conventional-cc-new.pdf</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
@@ -5297,8 +5185,7 @@
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
@@ -5345,8 +5232,7 @@
       </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr">
@@ -5391,8 +5277,7 @@
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
@@ -5437,8 +5322,7 @@
       </c>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+          <t>https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
@@ -5475,8 +5359,7 @@
       </c>
       <c r="D121" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+          <t>https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
         </is>
       </c>
       <c r="E121" s="3" t="inlineStr">
@@ -5512,8 +5395,7 @@
       </c>
       <c r="D122" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
@@ -5557,8 +5439,7 @@
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
@@ -5603,8 +5484,7 @@
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
@@ -5651,8 +5531,7 @@
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/upload/CEDocuments/iobPolicyAppointmentStatutoryCentralAuditorsStatutoryBranchAuditors.pdf</t>
+          <t>https://www.iob.in/upload/CEDocuments/iobPolicyAppointmentStatutoryCentralAuditorsStatutoryBranchAuditors.pdf</t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
@@ -5688,8 +5567,7 @@
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
+          <t>https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
@@ -5730,8 +5608,7 @@
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2011/20111231-hsbc-annual-report-and-accounts-english.pdf</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
@@ -5777,8 +5654,7 @@
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
+          <t>https://www.iob.in/Upload/Tender/IOB1152021120818PM_RFPITD0172122.pdf</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
@@ -5814,8 +5690,7 @@
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.iob.in/Upload/Tender/IOB91202164214PM_RFPITD0132122_VKYC.pdf</t>
+          <t>https://www.iob.in/Upload/Tender/IOB91202164214PM_RFPITD0132122_VKYC.pdf</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -5852,8 +5727,7 @@
       </c>
       <c r="D130" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -5898,8 +5772,7 @@
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -5944,8 +5817,7 @@
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -5990,8 +5862,7 @@
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -6036,8 +5907,7 @@
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
         </is>
       </c>
       <c r="E134" s="3" t="inlineStr">
@@ -6084,8 +5954,7 @@
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/november/sea-201109-hsbc-tender-offers-indicative-maximum-acceptance-amount.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/november/sea-201109-hsbc-tender-offers-indicative-maximum-acceptance-amount.pdf</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
@@ -6132,8 +6001,7 @@
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+          <t>https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
@@ -6170,8 +6038,7 @@
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+          <t>https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr">
@@ -6208,8 +6075,7 @@
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+          <t>https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
@@ -6245,8 +6111,7 @@
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
+          <t>https://prathamaupbank.com/Writereaddata/Downloads/Annaul%20Report%20FY%202019-20%20final%20complete%20report_compressed.pdf</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
@@ -6286,8 +6151,7 @@
       </c>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/investors/results-and-announcements</t>
+          <t>https://www.hsbc.com/investors/results-and-announcements</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr">
@@ -6318,8 +6182,7 @@
       </c>
       <c r="D141" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-annual-report-and-accounts-2021.pdf?download=1</t>
         </is>
       </c>
       <c r="E141" s="3" t="inlineStr">
@@ -6364,8 +6227,7 @@
       </c>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/the-hongkong-and-shanghai-banking-corporation-limited/220311-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
@@ -6410,8 +6272,7 @@
       </c>
       <c r="D143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/who-we-are/pdf/211214-financed-emissions-approach-and-methodology-update.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/who-we-are/pdf/211214-financed-emissions-approach-and-methodology-update.pdf</t>
         </is>
       </c>
       <c r="E143" s="3" t="inlineStr">
@@ -6455,8 +6316,7 @@
       </c>
       <c r="D144" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/green-and-sustainability-bonds/pdfs/211214-hsbc-green-bonds-report-2021.pdf?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/green-and-sustainability-bonds/pdfs/211214-hsbc-green-bonds-report-2021.pdf?download=1</t>
         </is>
       </c>
       <c r="E144" s="3" t="inlineStr">
@@ -6500,8 +6360,7 @@
       </c>
       <c r="D145" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2022/interim/pdfs/hsbc-holdings-plc/220801-interim-report-2022.pdf</t>
         </is>
       </c>
       <c r="E145" s="3" t="inlineStr">
@@ -6544,8 +6403,7 @@
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-plc/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr">
@@ -6589,8 +6447,7 @@
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2020/annual/pdfs/hsbc-holdings-plc/210223-presentation-to-investors-and-analysts.pdf</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
@@ -6634,8 +6491,7 @@
       </c>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2020/200928-hsbc-global-trade-and-receivables-finance.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/investor-events-and-presentations/2020/200928-hsbc-global-trade-and-receivables-finance.pdf</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
@@ -6679,8 +6535,7 @@
       </c>
       <c r="D149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-bank-plc/2023/230601-gem-offering-memorandum-dated-1-june-2023.pdf</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -6725,8 +6580,7 @@
       </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-bank-middle-east-limited/220222-annual-report-and-accounts-2021.pdf</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
@@ -6771,8 +6625,7 @@
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/subsidiaries/2021/financial-and-regulatory-reports/220420-hbmy-financial-statements-31-december-2021.pdf</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
@@ -6817,8 +6670,7 @@
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200810-hsbc-holdings-q2-2020-pillar-3.pdf</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
@@ -6864,8 +6716,7 @@
       </c>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/issuance-programmes/hsbc-holdings/2021/210330-hghq-2021-at1-offering-memorandum.pdf</t>
         </is>
       </c>
       <c r="E153" s="3" t="inlineStr">
@@ -6911,8 +6762,7 @@
       </c>
       <c r="D154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-esg-datapack-2021-excel.xlsx?download=1</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/annual/pdfs/hsbc-holdings-plc/220222-esg-datapack-2021-excel.xlsx?download=1</t>
         </is>
       </c>
       <c r="E154" s="3" t="inlineStr">
@@ -6945,8 +6795,7 @@
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200819-tender-offer-results-press-release-hk-stock-exchange.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2020/august/sea-200819-tender-offer-results-press-release-hk-stock-exchange.pdf</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr">
@@ -6992,8 +6841,7 @@
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/group/2015/annual-results/hsbc-holdings-plc/hsbc-holdings-plc-capital-and-risk-management-pillar-3-disclosures-at-31-december-2015.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/investing-in-hsbc/all-reporting/group/2015/annual-results/hsbc-holdings-plc/hsbc-holdings-plc-capital-and-risk-management-pillar-3-disclosures-at-31-december-2015.pdf</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr">
@@ -7039,8 +6887,7 @@
       </c>
       <c r="D157" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/results-and-announcements/stock-exchange-announcements/2019/march/sea-190306-e-2019-agm-circular.pdf</t>
         </is>
       </c>
       <c r="E157" s="3" t="inlineStr">
@@ -7086,8 +6933,7 @@
       </c>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/1q/pdf/hsbc-holdings-plc/210427-1q-2021-data-pack-excel.xlsx</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/hsbc-results/2021/1q/pdf/hsbc-holdings-plc/210427-1q-2021-data-pack-excel.xlsx</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
@@ -7120,8 +6966,7 @@
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/fixed-income-securities/subsidiaries/2029/may/gb00br9pn492-final-terms.pdf</t>
+          <t>https://www.hsbc.com/-/files/hsbc/investors/fixed-income-investors/fixed-income-securities/subsidiaries/2029/may/gb00br9pn492-final-terms.pdf</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
@@ -7168,8 +7013,7 @@
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
+          <t>https://www.sc.com/global/av/Unclaimed_Accounts1.pdf</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr">
@@ -7206,8 +7050,7 @@
       </c>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
+          <t>https://www.sc.com/global/av/in-unclaimed-account-1.pdf</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
